--- a/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
+++ b/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="93">
   <si>
     <t>土地坐落</t>
   </si>
@@ -196,6 +196,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>碩聯創投</t>
   </si>
   <si>
@@ -209,6 +218,9 @@
   </si>
   <si>
     <t>奇力新電子股份有限公司</t>
+  </si>
+  <si>
+    <t>2013-12-03</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1322,13 +1334,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1347,13 +1359,22 @@
       <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1370,13 +1391,22 @@
       <c r="G2" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1393,13 +1423,22 @@
       <c r="G3" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1416,13 +1455,22 @@
       <c r="G4" s="2">
         <v>78460</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -1439,13 +1487,22 @@
       <c r="G5" s="2">
         <v>1220</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1461,6 +1518,15 @@
       </c>
       <c r="G6" s="2">
         <v>65600</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2">
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -1478,16 +1544,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1495,16 +1561,16 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1512,16 +1578,16 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1529,16 +1595,16 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1546,16 +1612,16 @@
         <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1563,16 +1629,16 @@
         <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1590,20 +1656,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1611,22 +1677,22 @@
         <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>21243892</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1634,22 +1700,22 @@
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>1196356</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1657,22 +1723,22 @@
         <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
         <v>24608591</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1680,22 +1746,22 @@
         <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2">
         <v>92529</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
+++ b/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="95">
   <si>
     <t>土地坐落</t>
   </si>
@@ -196,6 +196,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -218,6 +221,9 @@
   </si>
   <si>
     <t>奇力新電子股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-12-03</t>
@@ -1334,13 +1340,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1368,13 +1374,16 @@
       <c r="J1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1392,21 +1401,24 @@
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2">
+        <v>68</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2">
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1424,21 +1436,24 @@
         <v>3000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2">
+        <v>68</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2">
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1456,21 +1471,24 @@
         <v>78460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2">
+        <v>68</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
         <v>629</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -1488,21 +1506,24 @@
         <v>1220</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="2">
+        <v>68</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2">
         <v>629</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1520,12 +1541,15 @@
         <v>65600</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="2">
+        <v>68</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2">
         <v>629</v>
       </c>
     </row>
@@ -1544,16 +1568,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1561,16 +1585,16 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1578,16 +1602,16 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1595,16 +1619,16 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1612,16 +1636,16 @@
         <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1629,16 +1653,16 @@
         <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1656,20 +1680,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1677,22 +1701,22 @@
         <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2">
         <v>21243892</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1700,22 +1724,22 @@
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2">
         <v>1196356</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1723,22 +1747,22 @@
         <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2">
         <v>24608591</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1746,22 +1770,22 @@
         <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2">
         <v>92529</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
+++ b/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="100">
   <si>
     <t>土地坐落</t>
   </si>
@@ -199,6 +199,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -208,6 +211,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>碩聯創投</t>
   </si>
   <si>
@@ -226,7 +235,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-12-03</t>
+  </si>
+  <si>
+    <t>tmp9b3d1</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1340,13 +1355,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1377,13 +1392,22 @@
       <c r="K1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1401,24 +1425,33 @@
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
         <v>629</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1436,24 +1469,33 @@
         <v>3000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2">
+        <v>72</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2">
         <v>629</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1471,24 +1513,33 @@
         <v>78460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2">
+        <v>72</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2">
         <v>629</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -1506,24 +1557,33 @@
         <v>1220</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="2">
+        <v>72</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2">
         <v>629</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1541,16 +1601,25 @@
         <v>65600</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="2">
+        <v>72</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2">
         <v>629</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="2">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1568,16 +1637,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1585,16 +1654,16 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1602,16 +1671,16 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1619,16 +1688,16 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1636,16 +1705,16 @@
         <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1653,16 +1722,16 @@
         <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1680,20 +1749,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1701,22 +1770,22 @@
         <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
         <v>21243892</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1724,22 +1793,22 @@
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2">
         <v>1196356</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1747,22 +1816,22 @@
         <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2">
         <v>24608591</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1770,22 +1839,22 @@
         <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2">
         <v>92529</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
+++ b/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
@@ -20,9 +20,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="100">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="103">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市信義區信義段五小段00330002地號</t>
+  </si>
+  <si>
+    <t>10000分之606</t>
+  </si>
+  <si>
+    <t>林道春</t>
+  </si>
+  <si>
+    <t>92年08月25日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>20000000</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-03</t>
+  </si>
+  <si>
+    <t>柯建銘</t>
+  </si>
+  <si>
+    <t>tmp9b3d1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,37 +118,13 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市信義區信義段五小段 0033-0002 地號</t>
-  </si>
-  <si>
-    <t>10000分之 606</t>
-  </si>
-  <si>
-    <t>林道春</t>
-  </si>
-  <si>
-    <t>92年08月 25日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>20，000，000</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市信義區信義段五小段 00928-000 建號(（陽台 24.71 平 方公尺））</t>
+    <t>臺北市信義區信義段五小段00928000建號(（陽台24.71平方公尺））</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>林道春'</t>
-  </si>
-  <si>
-    <t>30,000，000</t>
+    <t>30000000</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -85,13 +136,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>MERCEDES-BEN R350 CDI 4MATIC</t>
-  </si>
-  <si>
-    <t>柯建銘</t>
-  </si>
-  <si>
-    <t>100 年 03 月01曰</t>
+    <t>MERCEDESBENR350CDI4MATIC</t>
+  </si>
+  <si>
+    <t>100年03月01曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -175,13 +223,7 @@
     <t>美金</t>
   </si>
   <si>
-    <t>3，330</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>3330</t>
   </si>
   <si>
     <t>quantity</t>
@@ -196,27 +238,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>碩聯創投</t>
   </si>
   <si>
@@ -235,15 +256,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-03</t>
-  </si>
-  <si>
-    <t>tmp9b3d1</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -274,19 +286,19 @@
     <t>年年春還本終身保險</t>
   </si>
   <si>
-    <t>繳費20年終身保障年繳： 30,000</t>
-  </si>
-  <si>
-    <t>繳費21年終身保障月繳： 5,554</t>
-  </si>
-  <si>
-    <t>繳費21年終身保障月繳： 5,491</t>
-  </si>
-  <si>
-    <t>繳費20年終身還本月缴： 5,766</t>
-  </si>
-  <si>
-    <t>繳費20年終身還本月繳： 5,692</t>
+    <t>繳費20年終身保障年繳：30000</t>
+  </si>
+  <si>
+    <t>繳費21年終身保障月繳：5554</t>
+  </si>
+  <si>
+    <t>繳費21年終身保障月繳：5491</t>
+  </si>
+  <si>
+    <t>繳費20年終身還本月缴：5766</t>
+  </si>
+  <si>
+    <t>繳費20年終身還本月繳：5692</t>
   </si>
   <si>
     <t>種</t>
@@ -307,16 +319,13 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>合作金庫延吉分行 臺北市大安區仁愛路4段 376-1 號</t>
-  </si>
-  <si>
-    <t>92年09月 02日</t>
-  </si>
-  <si>
-    <t>102_年01月 25日</t>
-  </si>
-  <si>
-    <t>102年01月 25日</t>
+    <t>合作金庫延吉分行臺北市大安區仁愛路4段3761號</t>
+  </si>
+  <si>
+    <t>92年09月02日</t>
+  </si>
+  <si>
+    <t>102年01月25日</t>
   </si>
   <si>
     <t>房貸</t>
@@ -678,13 +687,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,31 +715,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>2171</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>629</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -748,25 +799,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -774,25 +825,25 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>230.96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -810,22 +861,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -833,19 +884,19 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>2987</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2">
         <v>3210000</v>
@@ -866,22 +917,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -889,16 +940,16 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -910,16 +961,16 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2">
         <v>10269.85</v>
@@ -933,16 +984,16 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -954,16 +1005,16 @@
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -975,16 +1026,16 @@
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -996,16 +1047,16 @@
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1017,16 +1068,16 @@
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1038,16 +1089,16 @@
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1059,20 +1110,20 @@
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1080,16 +1131,16 @@
         <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1101,16 +1152,16 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1122,16 +1173,16 @@
         <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1143,16 +1194,16 @@
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1164,16 +1215,16 @@
         <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1185,16 +1236,16 @@
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1206,16 +1257,16 @@
         <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1227,16 +1278,16 @@
         <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1248,16 +1299,16 @@
         <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1269,16 +1320,16 @@
         <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -1290,16 +1341,16 @@
         <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -1311,16 +1362,16 @@
         <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -1332,16 +1383,16 @@
         <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -1363,43 +1414,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1407,10 +1458,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>50000</v>
@@ -1419,28 +1470,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2">
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2">
         <v>629</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="N2" s="2">
         <v>72</v>
@@ -1451,10 +1502,10 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>30</v>
@@ -1463,28 +1514,28 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2">
         <v>3000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2">
         <v>629</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="N3" s="2">
         <v>73</v>
@@ -1495,10 +1546,10 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
         <v>7846</v>
@@ -1507,28 +1558,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2">
         <v>78460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2">
         <v>629</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="N4" s="2">
         <v>74</v>
@@ -1539,10 +1590,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>122</v>
@@ -1551,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2">
         <v>1220</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2">
         <v>629</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="N5" s="2">
         <v>76</v>
@@ -1583,10 +1634,10 @@
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>6560</v>
@@ -1595,28 +1646,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2">
         <v>65600</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2">
         <v>629</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="N6" s="2">
         <v>77</v>
@@ -1637,16 +1688,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1654,16 +1705,16 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1671,16 +1722,16 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1688,16 +1739,16 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1705,16 +1756,16 @@
         <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1722,16 +1773,16 @@
         <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1749,20 +1800,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1770,22 +1821,22 @@
         <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2">
         <v>21243892</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1793,22 +1844,22 @@
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2">
         <v>1196356</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1816,22 +1867,22 @@
         <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2">
         <v>24608591</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1839,22 +1890,22 @@
         <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2">
         <v>92529</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
+++ b/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -64,10 +64,16 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市信義區信義段五小段00330002地號</t>
-  </si>
-  <si>
-    <t>10000分之606</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>臺北市信義區信義段五小段00928000建號(（陽台24.71平方公尺））</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>林道春</t>
@@ -79,10 +85,109 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>20000000</t>
-  </si>
-  <si>
-    <t>land</t>
+    <t>30000000</t>
+  </si>
+  <si>
+    <t>MERCEDESBENR350CDI4MATIC</t>
+  </si>
+  <si>
+    <t>柯建銘</t>
+  </si>
+  <si>
+    <t>100年03月01曰</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>渣打銀行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>第一商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>花旗(台灣滴業銀行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行.</t>
+  </si>
+  <si>
+    <t>渣打國際商業銀行</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>中華郵政存簿儲金</t>
+  </si>
+  <si>
+    <t>中華郵政劃撥儲金</t>
+  </si>
+  <si>
+    <t>活期存政</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>3330</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>新竹一信</t>
+  </si>
+  <si>
+    <t>宏遠電訊</t>
+  </si>
+  <si>
+    <t>茂矽</t>
+  </si>
+  <si>
+    <t>奇力新電子股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>normal</t>
@@ -91,189 +196,18 @@
     <t>2013-12-03</t>
   </si>
   <si>
-    <t>柯建銘</t>
-  </si>
-  <si>
     <t>tmp9b3d1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市信義區信義段五小段00928000建號(（陽台24.71平方公尺））</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>30000000</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>MERCEDESBENR350CDI4MATIC</t>
-  </si>
-  <si>
-    <t>100年03月01曰</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>渣打銀行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>第一商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>花旗(台灣滴業銀行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行.</t>
-  </si>
-  <si>
-    <t>渣打國際商業銀行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>中華郵政存簿儲金</t>
-  </si>
-  <si>
-    <t>中華郵政劃撥儲金</t>
-  </si>
-  <si>
-    <t>活期存政</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>3330</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>碩聯創投</t>
-  </si>
-  <si>
-    <t>新竹一信</t>
-  </si>
-  <si>
-    <t>宏遠電訊</t>
-  </si>
-  <si>
-    <t>茂矽</t>
-  </si>
-  <si>
-    <t>奇力新電子股份有限公司</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
     <t>南山80終身保險</t>
   </si>
   <si>
+    <t>繳費20年終身保障年繳：30000</t>
+  </si>
+  <si>
     <t>新金美滿還本終身保險</t>
   </si>
   <si>
@@ -286,9 +220,6 @@
     <t>年年春還本終身保險</t>
   </si>
   <si>
-    <t>繳費20年終身保障年繳：30000</t>
-  </si>
-  <si>
     <t>繳費21年終身保障月繳：5554</t>
   </si>
   <si>
@@ -301,21 +232,6 @@
     <t>繳費20年終身還本月繳：5692</t>
   </si>
   <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>債</t>
-  </si>
-  <si>
-    <t>務</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -325,10 +241,10 @@
     <t>92年09月02日</t>
   </si>
   <si>
+    <t>房貸</t>
+  </si>
+  <si>
     <t>102年01月25日</t>
-  </si>
-  <si>
-    <t>房貸</t>
   </si>
 </sst>
 </file>
@@ -687,13 +603,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,52 +652,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2171</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2">
-        <v>629</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="2">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -791,59 +666,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>230.96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2">
-        <v>230.96</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -853,7 +702,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2987</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1">
+        <v>3210000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -861,541 +743,462 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>15729</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2987</v>
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F2" s="2">
+        <v>10269.85</v>
+      </c>
       <c r="G2" s="2">
-        <v>3210000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>44</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>15729</v>
+        <v>303371.36</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10269.85</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>303371.36</v>
+        <v>43890</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>43890</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>273</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>61</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>183</v>
+        <v>178359</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>178359</v>
+        <v>123507</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>123507</v>
+      <c r="G9" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>67</v>
+      <c r="G10" s="2">
+        <v>37320</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>37320</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>824</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>612</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>1673</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>1105</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>354</v>
+        <v>16449</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>16449</v>
+        <v>110885</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>110885</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>118</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>1891</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>533</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
-        <v>65</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
         <v>11209</v>
       </c>
     </row>
@@ -1406,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1420,16 +1223,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1455,34 +1258,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2">
-        <v>50000</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2">
-        <v>500000</v>
+        <v>3000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>23</v>
@@ -1491,42 +1294,42 @@
         <v>629</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="N2" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2">
-        <v>30</v>
+        <v>7846</v>
       </c>
       <c r="E3" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2">
-        <v>3000</v>
+        <v>78460</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>23</v>
@@ -1535,42 +1338,42 @@
         <v>629</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2">
-        <v>7846</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2">
-        <v>78460</v>
+        <v>1220</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>23</v>
@@ -1579,42 +1382,42 @@
         <v>629</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="N4" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2">
-        <v>122</v>
+        <v>6560</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2">
-        <v>1220</v>
+        <v>65600</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>23</v>
@@ -1623,53 +1426,9 @@
         <v>629</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="N5" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>77</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2">
-        <v>6560</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="2">
-        <v>65600</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="2">
-        <v>629</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="2">
         <v>77</v>
       </c>
     </row>
@@ -1680,7 +1439,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1688,101 +1447,84 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>106</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1534,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1800,112 +1542,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="E1" s="1">
+        <v>21243892</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2">
-        <v>21243892</v>
+        <v>1196356</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2">
-        <v>1196356</v>
+        <v>24608591</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2">
-        <v>24608591</v>
+        <v>92529</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>122</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="2">
-        <v>92529</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
+++ b/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -70,30 +70,51 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市信義區信義段五小段00330002地號</t>
+  </si>
+  <si>
+    <t>10000分之606</t>
+  </si>
+  <si>
+    <t>林道春</t>
+  </si>
+  <si>
+    <t>92年08月25日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>20000000</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-03</t>
+  </si>
+  <si>
+    <t>柯建銘</t>
+  </si>
+  <si>
+    <t>tmp9b3d1</t>
+  </si>
+  <si>
     <t>臺北市信義區信義段五小段00928000建號(（陽台24.71平方公尺））</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>林道春</t>
-  </si>
-  <si>
-    <t>92年08月25日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>30000000</t>
   </si>
   <si>
     <t>MERCEDESBENR350CDI4MATIC</t>
   </si>
   <si>
-    <t>柯建銘</t>
-  </si>
-  <si>
     <t>100年03月01曰</t>
   </si>
   <si>
@@ -175,6 +196,9 @@
     <t>currency</t>
   </si>
   <si>
+    <t>碩聯創投</t>
+  </si>
+  <si>
     <t>新竹一信</t>
   </si>
   <si>
@@ -188,15 +212,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-03</t>
-  </si>
-  <si>
-    <t>tmp9b3d1</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -603,13 +618,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,6 +672,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2171</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>629</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0606</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>131.5626</v>
       </c>
     </row>
   </sheetData>
@@ -666,33 +734,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
         <v>230.96</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>629</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>230.96</v>
       </c>
     </row>
   </sheetData>
@@ -702,29 +850,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1">
         <v>2987</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="1">
+        <v>3210000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2987</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
         <v>3210000</v>
       </c>
     </row>
@@ -735,7 +906,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -743,13 +914,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -761,444 +932,465 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2">
-        <v>10269.85</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>303371.36</v>
+        <v>15729</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10269.85</v>
+      </c>
       <c r="G3" s="2">
-        <v>43890</v>
+        <v>303371.36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>273</v>
+        <v>43890</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>61</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>183</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>49</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>178359</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>123507</v>
+        <v>178359</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>47</v>
+      <c r="G9" s="2">
+        <v>123507</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>37320</v>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>824</v>
+        <v>37320</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>612</v>
+        <v>824</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>1673</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>1105</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>354</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>16449</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>110885</v>
+        <v>16449</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>118</v>
+        <v>110885</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>1891</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>533</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>31</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>65</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
         <v>11209</v>
       </c>
     </row>
@@ -1209,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1223,13 +1415,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1258,177 +1450,221 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2">
+        <v>500000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2">
-        <v>100</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3000</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2">
         <v>629</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="N2" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2">
-        <v>7846</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2">
-        <v>78460</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2">
         <v>629</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
-        <v>122</v>
+        <v>7846</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2">
-        <v>1220</v>
+        <v>78460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2">
         <v>629</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="N4" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2">
-        <v>6560</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2">
-        <v>65600</v>
+        <v>1220</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2">
         <v>629</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="N5" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>77</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6560</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2">
+        <v>65600</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2">
+        <v>629</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="2">
         <v>77</v>
       </c>
     </row>
@@ -1439,7 +1675,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1447,27 +1683,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1478,53 +1714,70 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
+        <v>105</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>106</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>69</v>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1787,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1542,91 +1795,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1">
         <v>21243892</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
-        <v>1196356</v>
+        <v>21243892</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2">
-        <v>24608591</v>
+        <v>1196356</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
+        <v>121</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2">
+        <v>24608591</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>122</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2">
         <v>92529</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>73</v>
+      <c r="F5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
+++ b/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>30000000</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>MERCEDESBENR350CDI4MATIC</t>
@@ -850,38 +853,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1">
-        <v>2987</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1">
-        <v>3210000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>2987</v>
@@ -890,13 +914,34 @@
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2">
         <v>3210000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>629</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -914,13 +959,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -935,13 +980,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -956,13 +1001,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -979,13 +1024,13 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1000,13 +1045,13 @@
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1021,13 +1066,13 @@
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1042,13 +1087,13 @@
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -1063,13 +1108,13 @@
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -1084,13 +1129,13 @@
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -1105,20 +1150,20 @@
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1126,13 +1171,13 @@
         <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
@@ -1147,13 +1192,13 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1168,13 +1213,13 @@
         <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -1189,13 +1234,13 @@
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
@@ -1210,13 +1255,13 @@
         <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
@@ -1231,13 +1276,13 @@
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
@@ -1252,13 +1297,13 @@
         <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>25</v>
@@ -1273,13 +1318,13 @@
         <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>25</v>
@@ -1294,13 +1339,13 @@
         <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>25</v>
@@ -1315,13 +1360,13 @@
         <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>18</v>
@@ -1336,13 +1381,13 @@
         <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>25</v>
@@ -1357,13 +1402,13 @@
         <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>25</v>
@@ -1378,13 +1423,13 @@
         <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
@@ -1415,13 +1460,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1453,7 +1498,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1465,13 +1510,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2">
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1497,7 +1542,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
@@ -1509,13 +1554,13 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2">
         <v>3000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1541,7 +1586,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
@@ -1553,13 +1598,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2">
         <v>78460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1585,7 +1630,7 @@
         <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -1597,13 +1642,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2">
         <v>1220</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1629,7 +1674,7 @@
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
@@ -1641,13 +1686,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2">
         <v>65600</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -1683,16 +1728,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1700,16 +1745,16 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1717,16 +1762,16 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1734,16 +1779,16 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1751,16 +1796,16 @@
         <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1768,16 +1813,16 @@
         <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1795,22 +1840,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1">
         <v>21243892</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1818,22 +1863,22 @@
         <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2">
         <v>21243892</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1841,22 +1886,22 @@
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2">
         <v>1196356</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1864,22 +1909,22 @@
         <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
         <v>24608591</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1887,22 +1932,22 @@
         <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2">
         <v>92529</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
+++ b/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -112,6 +112,9 @@
     <t>30000000</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
   </si>
   <si>
     <t>100年03月01曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行</t>
@@ -819,7 +825,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -864,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -905,7 +911,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>2987</v>
@@ -914,7 +920,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -923,7 +929,7 @@
         <v>3210000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -959,13 +965,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -980,13 +986,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1001,13 +1007,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1024,13 +1030,13 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1045,13 +1051,13 @@
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1066,13 +1072,13 @@
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1087,13 +1093,13 @@
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -1108,13 +1114,13 @@
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -1129,13 +1135,13 @@
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -1150,20 +1156,20 @@
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1171,13 +1177,13 @@
         <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
@@ -1192,13 +1198,13 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1213,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -1234,13 +1240,13 @@
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
@@ -1255,13 +1261,13 @@
         <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
@@ -1276,13 +1282,13 @@
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
@@ -1297,13 +1303,13 @@
         <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>25</v>
@@ -1318,13 +1324,13 @@
         <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>25</v>
@@ -1339,13 +1345,13 @@
         <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>25</v>
@@ -1360,13 +1366,13 @@
         <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>18</v>
@@ -1381,13 +1387,13 @@
         <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>25</v>
@@ -1402,13 +1408,13 @@
         <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>25</v>
@@ -1423,13 +1429,13 @@
         <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
@@ -1460,13 +1466,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1498,7 +1504,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1510,13 +1516,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1542,7 +1548,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
@@ -1554,13 +1560,13 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
         <v>3000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1586,7 +1592,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
@@ -1598,13 +1604,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2">
         <v>78460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1630,7 +1636,7 @@
         <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -1642,13 +1648,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2">
         <v>1220</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1674,7 +1680,7 @@
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
@@ -1686,13 +1692,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2">
         <v>65600</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -1728,16 +1734,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1745,16 +1751,16 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1762,16 +1768,16 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1779,16 +1785,16 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1796,16 +1802,16 @@
         <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1813,16 +1819,16 @@
         <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1840,22 +1846,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1">
         <v>21243892</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1863,22 +1869,22 @@
         <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>21243892</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1886,22 +1892,22 @@
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2">
         <v>1196356</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1909,22 +1915,22 @@
         <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2">
         <v>24608591</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1932,22 +1938,22 @@
         <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2">
         <v>92529</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
+++ b/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -127,82 +127,88 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>渣打銀行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>第一商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>花旗(台灣滴業銀行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行.</t>
+  </si>
+  <si>
+    <t>渣打國際商業銀行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>中華郵政存簿儲金</t>
+  </si>
+  <si>
+    <t>中華郵政劃撥儲金</t>
+  </si>
+  <si>
+    <t>活期存政</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>渣打銀行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>第一商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>花旗(台灣滴業銀行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行.</t>
-  </si>
-  <si>
-    <t>渣打國際商業銀行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>中華郵政存簿儲金</t>
-  </si>
-  <si>
-    <t>中華郵政劃撥儲金</t>
-  </si>
-  <si>
-    <t>活期存政</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>3330</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>碩聯創投</t>
@@ -957,13 +963,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
@@ -974,475 +980,933 @@
         <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>15729</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>15729</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>629</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2">
-        <v>10269.85</v>
-      </c>
-      <c r="G3" s="2">
         <v>303371.36</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>629</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>43890</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>629</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>273</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>629</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>629</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>183</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>629</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>178359</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>629</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>123507</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>629</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>3330</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>629</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2">
+        <v>37320</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>629</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="2">
         <v>53</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>37320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>824</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>629</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>612</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2">
+        <v>629</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>1673</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>629</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>1105</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2">
+        <v>629</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>354</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2">
+        <v>629</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>16449</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="2">
+        <v>629</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>110885</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="2">
+        <v>629</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="2">
+        <v>629</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>1891</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="2">
+        <v>629</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>533</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="2">
+        <v>629</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="2">
+        <v>629</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+      <c r="F23" s="2">
         <v>11209</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="2">
+        <v>629</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="2">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1466,13 +1930,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1504,7 +1968,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1516,13 +1980,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2">
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1548,7 +2012,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
@@ -1560,13 +2024,13 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2">
         <v>3000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1592,7 +2056,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
@@ -1604,13 +2068,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2">
         <v>78460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1636,7 +2100,7 @@
         <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -1648,13 +2112,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2">
         <v>1220</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1680,7 +2144,7 @@
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
@@ -1692,13 +2156,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2">
         <v>65600</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -1734,16 +2198,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1751,16 +2215,16 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1768,16 +2232,16 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1785,16 +2249,16 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1802,16 +2266,16 @@
         <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1819,16 +2283,16 @@
         <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1846,22 +2310,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1">
         <v>21243892</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1869,22 +2333,22 @@
         <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
         <v>21243892</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1892,22 +2356,22 @@
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>1196356</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1915,22 +2379,22 @@
         <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2">
         <v>24608591</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1938,22 +2402,22 @@
         <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2">
         <v>92529</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
+++ b/legislator/property/output/normal/柯建銘_2013-12-03_財產申報表_tmp9b3d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -229,15 +229,15 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
     <t>南山80終身保險</t>
   </si>
   <si>
-    <t>繳費20年終身保障年繳：30000</t>
-  </si>
-  <si>
     <t>新金美滿還本終身保險</t>
   </si>
   <si>
@@ -250,16 +250,13 @@
     <t>年年春還本終身保險</t>
   </si>
   <si>
-    <t>繳費21年終身保障月繳：5554</t>
-  </si>
-  <si>
-    <t>繳費21年終身保障月繳：5491</t>
-  </si>
-  <si>
-    <t>繳費20年終身還本月缴：5766</t>
-  </si>
-  <si>
-    <t>繳費20年終身還本月繳：5692</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -271,10 +268,13 @@
     <t>92年09月02日</t>
   </si>
   <si>
+    <t>102年01月25日</t>
+  </si>
+  <si>
     <t>房貸</t>
   </si>
   <si>
-    <t>102年01月25日</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2190,49 +2190,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>629</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>72</v>
@@ -2243,13 +2279,31 @@
       <c r="E3" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2">
+        <v>629</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>73</v>
@@ -2258,15 +2312,33 @@
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2">
+        <v>629</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>74</v>
@@ -2275,15 +2347,33 @@
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2">
+        <v>629</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>75</v>
@@ -2292,7 +2382,25 @@
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2">
+        <v>629</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2302,122 +2410,227 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1">
-        <v>21243892</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>21243892</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>629</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>1196356</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>629</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2">
         <v>24608591</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2">
+        <v>629</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2">
         <v>92529</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>83</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2">
+        <v>629</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="2">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
